--- a/Notes/workAllocation.xlsx
+++ b/Notes/workAllocation.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC493650-463D-4A27-9DD9-6F1829F836BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Title</t>
   </si>
@@ -108,12 +107,18 @@
   <si>
     <t>wasim</t>
   </si>
+  <si>
+    <t>payeetable</t>
+  </si>
+  <si>
+    <t>transactionTable created by jana</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,16 +193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -206,8 +202,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -269,7 +274,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -301,27 +306,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -353,24 +340,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -546,22 +515,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="64.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="64.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,11 +544,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -589,37 +558,37 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -629,57 +598,57 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="2"/>
-      <c r="B13" s="4"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="2">
         <v>5</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" s="2"/>
-      <c r="B16" s="4"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>6</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -689,77 +658,83 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="2"/>
-      <c r="B19" s="6"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="2">
         <v>7</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="2"/>
-      <c r="B22" s="6"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="2">
         <v>8</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="2"/>
-      <c r="B25" s="6"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>9</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="2"/>
-      <c r="B28" s="6"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="2">
         <v>10</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -769,17 +744,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" s="2">
         <v>11</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -789,66 +764,94 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="2"/>
-      <c r="B34" s="9"/>
+      <c r="B34" s="3"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" s="2">
         <v>12</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" s="2"/>
-      <c r="B37" s="9"/>
+      <c r="B37" s="3"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" s="2">
         <v>13</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" s="2"/>
-      <c r="B40" s="9"/>
+      <c r="B40" s="3"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" s="2">
         <v>14</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" s="2"/>
-      <c r="B43" s="7"/>
+      <c r="B43" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C33:C40"/>
+    <mergeCell ref="D33:D40"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C18:C28"/>
+    <mergeCell ref="D18:D28"/>
+    <mergeCell ref="C9:C16"/>
+    <mergeCell ref="D9:D16"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A27:A28"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="A42:A43"/>
@@ -859,40 +862,12 @@
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C33:C40"/>
-    <mergeCell ref="D33:D40"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C18:C28"/>
-    <mergeCell ref="D18:D28"/>
-    <mergeCell ref="C9:C16"/>
-    <mergeCell ref="D9:D16"/>
   </mergeCells>
   <conditionalFormatting sqref="B33:B34">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFCFCFF"/>
       </colorScale>
@@ -904,24 +879,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes/workAllocation.xlsx
+++ b/Notes/workAllocation.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEBE930-664C-4F72-AE96-10D480DEB920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Title</t>
   </si>
@@ -102,9 +103,6 @@
     <t>jana</t>
   </si>
   <si>
-    <t>fazar</t>
-  </si>
-  <si>
     <t>wasim</t>
   </si>
   <si>
@@ -117,8 +115,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +191,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -200,18 +210,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -274,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,9 +304,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -340,6 +356,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -515,22 +549,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="64.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="64.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,11 +578,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -558,37 +592,37 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="6"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="6"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -598,57 +632,57 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="8"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="8"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>5</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="8"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>6</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -658,172 +692,200 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="7"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>7</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="7"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>8</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" s="7"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>9</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
-      <c r="B28" s="7"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>10</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="6"/>
+      <c r="B31" s="3"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>11</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>12</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
-      <c r="B37" s="3"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>13</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
-      <c r="B40" s="3"/>
+      <c r="B40" s="7"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>14</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
-      <c r="B43" s="4"/>
+      <c r="B43" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="C33:C40"/>
     <mergeCell ref="D33:D40"/>
     <mergeCell ref="C3:C7"/>
@@ -834,40 +896,12 @@
     <mergeCell ref="D18:D28"/>
     <mergeCell ref="C9:C16"/>
     <mergeCell ref="D9:D16"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A36:A37"/>
   </mergeCells>
   <conditionalFormatting sqref="B33:B34">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFCFCFF"/>
       </colorScale>
@@ -879,24 +913,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
